--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bdnf-Sort1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bdnf-Sort1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,22 +79,22 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Bdnf</t>
+  </si>
+  <si>
+    <t>Sort1</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Bdnf</t>
-  </si>
-  <si>
-    <t>Sort1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.7593275</v>
+        <v>0.9759805</v>
       </c>
       <c r="H2">
-        <v>7.518655</v>
+        <v>1.951961</v>
       </c>
       <c r="I2">
-        <v>0.978804739390664</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9685405051816526</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.500046</v>
+        <v>2.237491</v>
       </c>
       <c r="N2">
-        <v>1.000092</v>
+        <v>4.474982</v>
       </c>
       <c r="O2">
-        <v>0.02009953378395692</v>
+        <v>0.06247005729474239</v>
       </c>
       <c r="P2">
-        <v>0.01521121714331422</v>
+        <v>0.04731033530095431</v>
       </c>
       <c r="Q2">
-        <v>1.879836679065</v>
+        <v>2.1837475849255</v>
       </c>
       <c r="R2">
-        <v>7.519346716259999</v>
+        <v>8.734990339702</v>
       </c>
       <c r="S2">
-        <v>0.0196735189272798</v>
+        <v>0.06247005729474239</v>
       </c>
       <c r="T2">
-        <v>0.01473267993641337</v>
+        <v>0.04731033530095431</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.7593275</v>
+        <v>0.9759805</v>
       </c>
       <c r="H3">
-        <v>7.518655</v>
+        <v>1.951961</v>
       </c>
       <c r="I3">
-        <v>0.978804739390664</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9685405051816526</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>2.465949</v>
       </c>
       <c r="O3">
-        <v>0.03303991048491191</v>
+        <v>0.02294951135236041</v>
       </c>
       <c r="P3">
-        <v>0.03750663509291002</v>
+        <v>0.02607046777507775</v>
       </c>
       <c r="Q3">
-        <v>3.0901032964325</v>
+        <v>0.8022393793315</v>
       </c>
       <c r="R3">
-        <v>18.540619778595</v>
+        <v>4.813436275989001</v>
       </c>
       <c r="S3">
-        <v>0.03233962097167507</v>
+        <v>0.02294951135236041</v>
       </c>
       <c r="T3">
-        <v>0.03632669530055097</v>
+        <v>0.02607046777507775</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.7593275</v>
+        <v>0.9759805</v>
       </c>
       <c r="H4">
-        <v>7.518655</v>
+        <v>1.951961</v>
       </c>
       <c r="I4">
-        <v>0.978804739390664</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.9685405051816526</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.086962666666667</v>
+        <v>6.735542666666666</v>
       </c>
       <c r="N4">
-        <v>21.260888</v>
+        <v>20.206628</v>
       </c>
       <c r="O4">
-        <v>0.2848630836849172</v>
+        <v>0.1880542698486155</v>
       </c>
       <c r="P4">
-        <v>0.3233742335981926</v>
+        <v>0.2136281991707792</v>
       </c>
       <c r="Q4">
-        <v>26.64221364427334</v>
+        <v>6.573758299584667</v>
       </c>
       <c r="R4">
-        <v>159.85328186564</v>
+        <v>39.442549797508</v>
       </c>
       <c r="S4">
-        <v>0.2788253363882363</v>
+        <v>0.1880542698486155</v>
       </c>
       <c r="T4">
-        <v>0.3132010435719231</v>
+        <v>0.2136281991707792</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.7593275</v>
+        <v>0.9759805</v>
       </c>
       <c r="H5">
-        <v>7.518655</v>
+        <v>1.951961</v>
       </c>
       <c r="I5">
-        <v>0.978804739390664</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.9685405051816526</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.3884095</v>
+        <v>10.625724</v>
       </c>
       <c r="N5">
-        <v>16.776819</v>
+        <v>21.251448</v>
       </c>
       <c r="O5">
-        <v>0.3371752201575758</v>
+        <v>0.2966669305387684</v>
       </c>
       <c r="P5">
-        <v>0.2551723609258745</v>
+        <v>0.224674228971378</v>
       </c>
       <c r="Q5">
-        <v>31.53477851461125</v>
+        <v>10.370499422382</v>
       </c>
       <c r="R5">
-        <v>126.139114058445</v>
+        <v>41.481997689528</v>
       </c>
       <c r="S5">
-        <v>0.3300287034953258</v>
+        <v>0.2966669305387684</v>
       </c>
       <c r="T5">
-        <v>0.2471447673595415</v>
+        <v>0.224674228971378</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.7593275</v>
+        <v>0.9759805</v>
       </c>
       <c r="H6">
-        <v>7.518655</v>
+        <v>1.951961</v>
       </c>
       <c r="I6">
-        <v>0.978804739390664</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.9685405051816526</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.570313333333333</v>
+        <v>6.969967333333333</v>
       </c>
       <c r="N6">
-        <v>4.71094</v>
+        <v>20.909902</v>
       </c>
       <c r="O6">
-        <v>0.06311932481158</v>
+        <v>0.1945993341004796</v>
       </c>
       <c r="P6">
-        <v>0.07165253925551318</v>
+        <v>0.221063341646982</v>
       </c>
       <c r="Q6">
-        <v>5.903322097616666</v>
+        <v>6.802552202970333</v>
       </c>
       <c r="R6">
-        <v>35.4199325857</v>
+        <v>40.815313217822</v>
       </c>
       <c r="S6">
-        <v>0.06178149427271324</v>
+        <v>0.1945993341004796</v>
       </c>
       <c r="T6">
-        <v>0.06939838656808293</v>
+        <v>0.221063341646982</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.7593275</v>
+        <v>0.9759805</v>
       </c>
       <c r="H7">
-        <v>7.518655</v>
+        <v>1.951961</v>
       </c>
       <c r="I7">
-        <v>0.978804739390664</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0.9685405051816526</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,400 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.510773</v>
+        <v>8.426307333333332</v>
       </c>
       <c r="N7">
-        <v>19.532319</v>
+        <v>25.278922</v>
       </c>
       <c r="O7">
-        <v>0.2617029270770581</v>
+        <v>0.2352598968650338</v>
       </c>
       <c r="P7">
-        <v>0.2970830139841956</v>
+        <v>0.2672534271348288</v>
       </c>
       <c r="Q7">
-        <v>24.4761279851575</v>
+        <v>8.223911644340332</v>
       </c>
       <c r="R7">
-        <v>146.856767910945</v>
+        <v>49.343469866042</v>
       </c>
       <c r="S7">
-        <v>0.2561560653354338</v>
+        <v>0.2352598968650338</v>
       </c>
       <c r="T7">
-        <v>0.2877369324451407</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.08140533333333333</v>
-      </c>
-      <c r="H8">
-        <v>0.244216</v>
-      </c>
-      <c r="I8">
-        <v>0.02119526060933597</v>
-      </c>
-      <c r="J8">
-        <v>0.03145949481834749</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0.500046</v>
-      </c>
-      <c r="N8">
-        <v>1.000092</v>
-      </c>
-      <c r="O8">
-        <v>0.02009953378395692</v>
-      </c>
-      <c r="P8">
-        <v>0.01521121714331422</v>
-      </c>
-      <c r="Q8">
-        <v>0.040706411312</v>
-      </c>
-      <c r="R8">
-        <v>0.244238467872</v>
-      </c>
-      <c r="S8">
-        <v>0.0004260148566771197</v>
-      </c>
-      <c r="T8">
-        <v>0.0004785372069008523</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.08140533333333333</v>
-      </c>
-      <c r="H9">
-        <v>0.244216</v>
-      </c>
-      <c r="I9">
-        <v>0.02119526060933597</v>
-      </c>
-      <c r="J9">
-        <v>0.03145949481834749</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.821983</v>
-      </c>
-      <c r="N9">
-        <v>2.465949</v>
-      </c>
-      <c r="O9">
-        <v>0.03303991048491191</v>
-      </c>
-      <c r="P9">
-        <v>0.03750663509291002</v>
-      </c>
-      <c r="Q9">
-        <v>0.06691380010933333</v>
-      </c>
-      <c r="R9">
-        <v>0.602224200984</v>
-      </c>
-      <c r="S9">
-        <v>0.0007002895132368401</v>
-      </c>
-      <c r="T9">
-        <v>0.001179939792359053</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.08140533333333333</v>
-      </c>
-      <c r="H10">
-        <v>0.244216</v>
-      </c>
-      <c r="I10">
-        <v>0.02119526060933597</v>
-      </c>
-      <c r="J10">
-        <v>0.03145949481834749</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>7.086962666666667</v>
-      </c>
-      <c r="N10">
-        <v>21.260888</v>
-      </c>
-      <c r="O10">
-        <v>0.2848630836849172</v>
-      </c>
-      <c r="P10">
-        <v>0.3233742335981926</v>
-      </c>
-      <c r="Q10">
-        <v>0.5769165582008889</v>
-      </c>
-      <c r="R10">
-        <v>5.192249023808</v>
-      </c>
-      <c r="S10">
-        <v>0.006037747296680902</v>
-      </c>
-      <c r="T10">
-        <v>0.01017319002626943</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.08140533333333333</v>
-      </c>
-      <c r="H11">
-        <v>0.244216</v>
-      </c>
-      <c r="I11">
-        <v>0.02119526060933597</v>
-      </c>
-      <c r="J11">
-        <v>0.03145949481834749</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>8.3884095</v>
-      </c>
-      <c r="N11">
-        <v>16.776819</v>
-      </c>
-      <c r="O11">
-        <v>0.3371752201575758</v>
-      </c>
-      <c r="P11">
-        <v>0.2551723609258745</v>
-      </c>
-      <c r="Q11">
-        <v>0.682861271484</v>
-      </c>
-      <c r="R11">
-        <v>4.097167628904</v>
-      </c>
-      <c r="S11">
-        <v>0.007146516662250051</v>
-      </c>
-      <c r="T11">
-        <v>0.008027593566333046</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.08140533333333333</v>
-      </c>
-      <c r="H12">
-        <v>0.244216</v>
-      </c>
-      <c r="I12">
-        <v>0.02119526060933597</v>
-      </c>
-      <c r="J12">
-        <v>0.03145949481834749</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>1.570313333333333</v>
-      </c>
-      <c r="N12">
-        <v>4.71094</v>
-      </c>
-      <c r="O12">
-        <v>0.06311932481158</v>
-      </c>
-      <c r="P12">
-        <v>0.07165253925551318</v>
-      </c>
-      <c r="Q12">
-        <v>0.1278318803377778</v>
-      </c>
-      <c r="R12">
-        <v>1.15048692304</v>
-      </c>
-      <c r="S12">
-        <v>0.001337830538866764</v>
-      </c>
-      <c r="T12">
-        <v>0.002254152687430257</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.08140533333333333</v>
-      </c>
-      <c r="H13">
-        <v>0.244216</v>
-      </c>
-      <c r="I13">
-        <v>0.02119526060933597</v>
-      </c>
-      <c r="J13">
-        <v>0.03145949481834749</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>6.510773</v>
-      </c>
-      <c r="N13">
-        <v>19.532319</v>
-      </c>
-      <c r="O13">
-        <v>0.2617029270770581</v>
-      </c>
-      <c r="P13">
-        <v>0.2970830139841956</v>
-      </c>
-      <c r="Q13">
-        <v>0.5300116463226666</v>
-      </c>
-      <c r="R13">
-        <v>4.770104816904</v>
-      </c>
-      <c r="S13">
-        <v>0.005546861741624293</v>
-      </c>
-      <c r="T13">
-        <v>0.009346081539054855</v>
+        <v>0.2672534271348288</v>
       </c>
     </row>
   </sheetData>
